--- a/notebooks/assets/test_random_selection/keraspm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test_random_selection/keraspm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.071</v>
+        <v>2.117</v>
       </c>
       <c r="C2" t="n">
-        <v>1.804</v>
+        <v>1.519</v>
       </c>
       <c r="D2" t="n">
-        <v>1.004</v>
+        <v>0.823</v>
       </c>
       <c r="E2" t="n">
-        <v>1.885</v>
+        <v>1.401</v>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.85</v>
+        <v>2.633</v>
       </c>
       <c r="C3" t="n">
-        <v>2.244</v>
+        <v>1.84</v>
       </c>
       <c r="D3" t="n">
-        <v>1.267</v>
+        <v>1.014</v>
       </c>
       <c r="E3" t="n">
-        <v>2.387</v>
+        <v>1.787</v>
       </c>
       <c r="F3" t="n">
-        <v>1.785</v>
+        <v>1.509</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.175</v>
+        <v>7.012</v>
       </c>
       <c r="C4" t="n">
-        <v>5.104</v>
+        <v>3.473</v>
       </c>
       <c r="D4" t="n">
-        <v>1.634</v>
+        <v>1.055</v>
       </c>
       <c r="E4" t="n">
-        <v>5.848</v>
+        <v>3.249</v>
       </c>
       <c r="F4" t="n">
-        <v>3.264</v>
+        <v>2.362</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.45</v>
+        <v>0.753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236</v>
+        <v>0.475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.473</v>
+        <v>0.695</v>
       </c>
       <c r="F5" t="n">
-        <v>0.574</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.798</v>
+        <v>7.8</v>
       </c>
       <c r="C6" t="n">
-        <v>6.552</v>
+        <v>6.554</v>
       </c>
       <c r="D6" t="n">
         <v>2.113</v>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.26</v>
+        <v>9.262</v>
       </c>
       <c r="C7" t="n">
-        <v>7.579</v>
+        <v>7.571</v>
       </c>
       <c r="D7" t="n">
-        <v>2.719</v>
+        <v>2.72</v>
       </c>
       <c r="E7" t="n">
-        <v>3.628</v>
+        <v>3.598</v>
       </c>
       <c r="F7" t="n">
         <v>4.067</v>
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.26900000000001</v>
+        <v>86.279</v>
       </c>
       <c r="C8" t="n">
-        <v>57.537</v>
+        <v>57.562</v>
       </c>
       <c r="D8" t="n">
-        <v>7.557</v>
+        <v>7.565</v>
       </c>
       <c r="E8" t="n">
         <v>13.266</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.063</v>
+        <v>-2.147</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.841</v>
+        <v>-8.102</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.936</v>
+        <v>-3.386</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.231</v>
+        <v>-0.239</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.194</v>
+        <v>-1.158</v>
       </c>
     </row>
   </sheetData>
